--- a/TASAS_DE_USURA.xlsx
+++ b/TASAS_DE_USURA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\45087114\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7043044-EA2A-4FE6-A09A-952FE4365714}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E246F4-4149-8C48-AF9D-FD1551ED71A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1759CCE3-2BF2-4C0E-8A33-A62E3C8F4D9E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{1759CCE3-2BF2-4C0E-8A33-A62E3C8F4D9E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -99,7 +98,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,6 +114,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -1020,7 +1025,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1333,6 +1338,9 @@
     </xf>
     <xf numFmtId="10" fontId="2" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="3" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1669,13 +1677,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C8CA039-79A3-46AD-89B4-2CF1D7A57DAF}">
-  <dimension ref="A1:D258"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A220" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1689,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1703,7 +1713,7 @@
         <v>0.54749999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>5</v>
       </c>
@@ -1717,7 +1727,7 @@
         <v>0.47760000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1741,7 @@
         <v>0.46989999999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
@@ -1745,7 +1755,7 @@
         <v>0.47204999999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>0.47610000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
@@ -1773,7 +1783,7 @@
         <v>0.47535000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>10</v>
       </c>
@@ -1787,7 +1797,7 @@
         <v>0.4884</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
@@ -1801,7 +1811,7 @@
         <v>0.48225000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>12</v>
       </c>
@@ -1815,7 +1825,7 @@
         <v>0.54420000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
@@ -1829,7 +1839,7 @@
         <v>0.57584999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +1853,7 @@
         <v>0.59265000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>15</v>
       </c>
@@ -1857,7 +1867,7 @@
         <v>0.71745000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>16</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>0.72614999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>17</v>
       </c>
@@ -1885,7 +1895,7 @@
         <v>0.64800000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="9">
         <v>36069</v>
       </c>
@@ -1899,7 +1909,7 @@
         <v>0.69000000000000006</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <v>36100</v>
       </c>
@@ -1913,7 +1923,7 @@
         <v>0.74985000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <v>36130</v>
       </c>
@@ -1927,7 +1937,7 @@
         <v>0.71565000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <v>36161</v>
       </c>
@@ -1941,7 +1951,7 @@
         <v>0.68235000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <v>36192</v>
       </c>
@@ -1955,7 +1965,7 @@
         <v>0.63585000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <v>36220</v>
       </c>
@@ -1969,7 +1979,7 @@
         <v>0.61485000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <v>36234</v>
       </c>
@@ -1983,7 +1993,7 @@
         <v>0.59640000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <v>36251</v>
       </c>
@@ -1997,7 +2007,7 @@
         <v>0.50354999999999994</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>36281</v>
       </c>
@@ -2011,7 +2021,7 @@
         <v>0.46710000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <v>36312</v>
       </c>
@@ -2025,7 +2035,7 @@
         <v>0.41190000000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <v>36342</v>
       </c>
@@ -2039,7 +2049,7 @@
         <v>0.36330000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <v>36373</v>
       </c>
@@ -2053,7 +2063,7 @@
         <v>0.39375000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="13">
         <v>36404</v>
       </c>
@@ -2067,7 +2077,7 @@
         <v>0.39015</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <v>36434</v>
       </c>
@@ -2081,7 +2091,7 @@
         <v>0.40439999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <v>36465</v>
       </c>
@@ -2095,7 +2105,7 @@
         <v>0.38550000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>36495</v>
       </c>
@@ -2109,7 +2119,7 @@
         <v>0.36330000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>36526</v>
       </c>
@@ -2123,7 +2133,7 @@
         <v>0.33600000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>36557</v>
       </c>
@@ -2137,7 +2147,7 @@
         <v>0.29189999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>36586</v>
       </c>
@@ -2151,7 +2161,7 @@
         <v>0.26174999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>36617</v>
       </c>
@@ -2165,7 +2175,7 @@
         <v>0.26805000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>36647</v>
       </c>
@@ -2179,7 +2189,7 @@
         <v>0.26849999999999996</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>36678</v>
       </c>
@@ -2193,7 +2203,7 @@
         <v>0.29654999999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>36708</v>
       </c>
@@ -2207,7 +2217,7 @@
         <v>0.29159999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>36739</v>
       </c>
@@ -2221,7 +2231,7 @@
         <v>0.29879999999999995</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>36770</v>
       </c>
@@ -2235,7 +2245,7 @@
         <v>0.34394999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>36800</v>
       </c>
@@ -2249,7 +2259,7 @@
         <v>0.34620000000000001</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>36831</v>
       </c>
@@ -2263,7 +2273,7 @@
         <v>0.35699999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>36861</v>
       </c>
@@ -2277,7 +2287,7 @@
         <v>0.35535</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>36892</v>
       </c>
@@ -2291,7 +2301,7 @@
         <v>0.3624</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>36923</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>0.39044999999999996</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>36951</v>
       </c>
@@ -2319,7 +2329,7 @@
         <v>0.37664999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>36982</v>
       </c>
@@ -2333,7 +2343,7 @@
         <v>0.37245</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>37012</v>
       </c>
@@ -2347,7 +2357,7 @@
         <v>0.36360000000000003</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="18">
         <v>37043</v>
       </c>
@@ -2361,7 +2371,7 @@
         <v>0.37754999999999994</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="18">
         <v>37073</v>
       </c>
@@ -2375,7 +2385,7 @@
         <v>0.39119999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>37104</v>
       </c>
@@ -2389,7 +2399,7 @@
         <v>0.36375000000000002</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>37135</v>
       </c>
@@ -2403,7 +2413,7 @@
         <v>0.34589999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>37165</v>
       </c>
@@ -2417,7 +2427,7 @@
         <v>0.3483</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>37196</v>
       </c>
@@ -2431,7 +2441,7 @@
         <v>0.34470000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>37226</v>
       </c>
@@ -2445,7 +2455,7 @@
         <v>0.3372</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>37257</v>
       </c>
@@ -2459,7 +2469,7 @@
         <v>0.34215000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>37288</v>
       </c>
@@ -2473,7 +2483,7 @@
         <v>0.33524999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>37316</v>
       </c>
@@ -2487,7 +2497,7 @@
         <v>0.31455</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>37347</v>
       </c>
@@ -2501,7 +2511,7 @@
         <v>0.31545000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>37377</v>
       </c>
@@ -2515,7 +2525,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>37408</v>
       </c>
@@ -2529,7 +2539,7 @@
         <v>0.2994</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>37438</v>
       </c>
@@ -2543,7 +2553,7 @@
         <v>0.29654999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>37469</v>
       </c>
@@ -2557,7 +2567,7 @@
         <v>0.30015000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="18">
         <v>37500</v>
       </c>
@@ -2571,7 +2581,7 @@
         <v>0.30270000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="18">
         <v>37530</v>
       </c>
@@ -2585,7 +2595,7 @@
         <v>0.30449999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="18">
         <v>37561</v>
       </c>
@@ -2599,7 +2609,7 @@
         <v>0.2964</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="18">
         <v>37591</v>
       </c>
@@ -2613,7 +2623,7 @@
         <v>0.29535</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="18">
         <v>37622</v>
       </c>
@@ -2627,7 +2637,7 @@
         <v>0.29459999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="18">
         <v>37653</v>
       </c>
@@ -2641,7 +2651,7 @@
         <v>0.29670000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="18">
         <v>37681</v>
       </c>
@@ -2655,7 +2665,7 @@
         <v>0.29235</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="18">
         <v>37712</v>
       </c>
@@ -2669,7 +2679,7 @@
         <v>0.29715000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="18">
         <v>37742</v>
       </c>
@@ -2683,7 +2693,7 @@
         <v>0.29835</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="18">
         <v>37773</v>
       </c>
@@ -2697,7 +2707,7 @@
         <v>0.28800000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="18">
         <v>37803</v>
       </c>
@@ -2711,7 +2721,7 @@
         <v>0.29159999999999997</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="18">
         <v>37834</v>
       </c>
@@ -2725,7 +2735,7 @@
         <v>0.29820000000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="18">
         <v>37865</v>
       </c>
@@ -2739,7 +2749,7 @@
         <v>0.30179999999999996</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="18">
         <v>37895</v>
       </c>
@@ -2753,7 +2763,7 @@
         <v>0.30059999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="18">
         <v>37926</v>
       </c>
@@ -2767,7 +2777,7 @@
         <v>0.29799999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="18">
         <v>37956</v>
       </c>
@@ -2781,7 +2791,7 @@
         <v>0.29715000000000003</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="18">
         <v>37987</v>
       </c>
@@ -2795,7 +2805,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="25">
         <v>38018</v>
       </c>
@@ -2809,7 +2819,7 @@
         <v>0.29609999999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="18">
         <v>38047</v>
       </c>
@@ -2823,7 +2833,7 @@
         <v>0.29700000000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="18">
         <v>38078</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>0.29670000000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="18">
         <v>38108</v>
       </c>
@@ -2851,7 +2861,7 @@
         <v>0.29559999999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="18">
         <v>38139</v>
       </c>
@@ -2865,7 +2875,7 @@
         <v>0.29499999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="18">
         <v>38169</v>
       </c>
@@ -2879,7 +2889,7 @@
         <v>0.29159999999999997</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="18">
         <v>38200</v>
       </c>
@@ -2893,7 +2903,7 @@
         <v>0.28920000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="18">
         <v>38231</v>
       </c>
@@ -2907,7 +2917,7 @@
         <v>0.29249999999999998</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="18">
         <v>38261</v>
       </c>
@@ -2921,7 +2931,7 @@
         <v>0.2863</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="18">
         <v>38292</v>
       </c>
@@ -2935,7 +2945,7 @@
         <v>0.29385</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="18">
         <v>38322</v>
       </c>
@@ -2949,7 +2959,7 @@
         <v>0.2923</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="30">
         <v>38353</v>
       </c>
@@ -2963,7 +2973,7 @@
         <v>0.29175000000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="18">
         <v>38384</v>
       </c>
@@ -2977,7 +2987,7 @@
         <v>0.29100000000000004</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="18">
         <v>38412</v>
       </c>
@@ -2991,7 +3001,7 @@
         <v>0.28725000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="18">
         <v>38443</v>
       </c>
@@ -3005,7 +3015,7 @@
         <v>0.28784999999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="18">
         <v>38473</v>
       </c>
@@ -3019,7 +3029,7 @@
         <v>0.2853</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="30">
         <v>38504</v>
       </c>
@@ -3033,7 +3043,7 @@
         <v>0.28275</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="30">
         <v>38534</v>
       </c>
@@ -3047,7 +3057,7 @@
         <v>0.27749999999999997</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="30">
         <v>38565</v>
       </c>
@@ -3061,7 +3071,7 @@
         <v>0.27360000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="30">
         <v>38596</v>
       </c>
@@ -3075,7 +3085,7 @@
         <v>0.27329999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="30">
         <v>38626</v>
       </c>
@@ -3089,7 +3099,7 @@
         <v>0.26894999999999997</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="30">
         <v>38657</v>
       </c>
@@ -3103,7 +3113,7 @@
         <v>0.26715</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="30">
         <v>38687</v>
       </c>
@@ -3117,7 +3127,7 @@
         <v>0.26234999999999997</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="30">
         <v>38718</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>0.26024999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="30">
         <v>38749</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>0.26264999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="30">
         <v>38777</v>
       </c>
@@ -3159,7 +3169,7 @@
         <v>0.25874999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="30">
         <v>38808</v>
       </c>
@@ -3173,7 +3183,7 @@
         <v>0.25125000000000003</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="30">
         <v>38838</v>
       </c>
@@ -3187,7 +3197,7 @@
         <v>0.24105000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="30">
         <v>38869</v>
       </c>
@@ -3201,7 +3211,7 @@
         <v>0.23414999999999997</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="30">
         <v>38899</v>
       </c>
@@ -3215,7 +3225,7 @@
         <v>0.22619999999999998</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="30">
         <v>38930</v>
       </c>
@@ -3229,7 +3239,7 @@
         <v>0.2253</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="30">
         <v>38961</v>
       </c>
@@ -3243,7 +3253,7 @@
         <v>0.22575000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A113" s="31">
         <v>38991</v>
       </c>
@@ -3257,7 +3267,7 @@
         <v>0.22605</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A114" s="35">
         <v>39083</v>
       </c>
@@ -3271,7 +3281,7 @@
         <v>0.16605</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A115" s="35">
         <v>39087</v>
       </c>
@@ -3285,7 +3295,7 @@
         <v>0.20745000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A116" s="41">
         <v>39173</v>
       </c>
@@ -3299,7 +3309,7 @@
         <v>0.25119999999999998</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="45">
         <v>39264</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>0.28510000000000002</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="49">
         <v>39356</v>
       </c>
@@ -3327,7 +3337,7 @@
         <v>0.31890000000000002</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="18">
         <v>39448</v>
       </c>
@@ -3341,7 +3351,7 @@
         <v>0.32745000000000002</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="53">
         <v>39539</v>
       </c>
@@ -3355,7 +3365,7 @@
         <v>0.32879999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>39630</v>
       </c>
@@ -3369,7 +3379,7 @@
         <v>0.32264999999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>39722</v>
       </c>
@@ -3383,7 +3393,7 @@
         <v>0.31530000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>39814</v>
       </c>
@@ -3397,7 +3407,7 @@
         <v>0.30704999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>39904</v>
       </c>
@@ -3411,7 +3421,7 @@
         <v>0.30420000000000003</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="57">
         <v>39995</v>
       </c>
@@ -3425,7 +3435,7 @@
         <v>0.27975</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>40087</v>
       </c>
@@ -3439,7 +3449,7 @@
         <v>0.25919999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>40179</v>
       </c>
@@ -3453,7 +3463,7 @@
         <v>0.24209999999999998</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="57">
         <v>40269</v>
       </c>
@@ -3467,7 +3477,7 @@
         <v>0.22965000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="53">
         <v>40360</v>
       </c>
@@ -3481,7 +3491,7 @@
         <v>0.22410000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="60">
         <v>40452</v>
       </c>
@@ -3495,7 +3505,7 @@
         <v>0.21315000000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="60">
         <v>40544</v>
       </c>
@@ -3509,7 +3519,7 @@
         <v>0.23414999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>40634</v>
       </c>
@@ -3523,7 +3533,7 @@
         <v>0.26534999999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="53">
         <v>40725</v>
       </c>
@@ -3537,7 +3547,7 @@
         <v>0.27944999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="60">
         <v>40817</v>
       </c>
@@ -3551,7 +3561,7 @@
         <v>0.29085</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="57">
         <v>40909</v>
       </c>
@@ -3565,7 +3575,7 @@
         <v>0.29879999999999995</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="53">
         <v>41000</v>
       </c>
@@ -3579,7 +3589,7 @@
         <v>0.30779999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="65">
         <v>41091</v>
       </c>
@@ -3593,7 +3603,7 @@
         <v>0.31290000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="60">
         <v>41183</v>
       </c>
@@ -3607,7 +3617,7 @@
         <v>0.31335000000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="60">
         <v>41275</v>
       </c>
@@ -3621,7 +3631,7 @@
         <v>0.31124999999999997</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="60">
         <v>41365</v>
       </c>
@@ -3635,7 +3645,7 @@
         <v>0.31245000000000001</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="65">
         <v>41456</v>
       </c>
@@ -3649,7 +3659,7 @@
         <v>0.30509999999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="65">
         <v>41548</v>
       </c>
@@ -3663,7 +3673,7 @@
         <v>0.29775000000000001</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="65">
         <v>41640</v>
       </c>
@@ -3677,7 +3687,7 @@
         <v>0.29475000000000001</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="65">
         <v>41730</v>
       </c>
@@ -3691,7 +3701,7 @@
         <v>0.29444999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="69">
         <v>41821</v>
       </c>
@@ -3705,7 +3715,7 @@
         <v>0.28994999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="69">
         <v>41913</v>
       </c>
@@ -3719,7 +3729,7 @@
         <v>0.28755000000000003</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="65">
         <v>42005</v>
       </c>
@@ -3733,7 +3743,7 @@
         <v>0.28815000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="60">
         <v>42095</v>
       </c>
@@ -3747,7 +3757,7 @@
         <v>0.29055000000000003</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="65">
         <v>42186</v>
       </c>
@@ -3761,7 +3771,7 @@
         <v>0.28889999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="65">
         <v>42278</v>
       </c>
@@ -3775,7 +3785,7 @@
         <v>0.28994999999999999</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="65">
         <v>42370</v>
       </c>
@@ -3789,7 +3799,7 @@
         <v>0.29520000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="60">
         <v>42461</v>
       </c>
@@ -3803,7 +3813,7 @@
         <v>0.30809999999999998</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="60">
         <v>42552</v>
       </c>
@@ -3817,7 +3827,7 @@
         <v>0.3201</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="60">
         <v>42644</v>
       </c>
@@ -3831,7 +3841,7 @@
         <v>0.32985000000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="65">
         <v>42736</v>
       </c>
@@ -3845,7 +3855,7 @@
         <v>0.33509999999999995</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="65">
         <v>42826</v>
       </c>
@@ -3859,7 +3869,7 @@
         <v>0.33494999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="65">
         <v>42917</v>
       </c>
@@ -3873,7 +3883,7 @@
         <v>0.32969999999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="65">
         <v>42979</v>
       </c>
@@ -3887,7 +3897,7 @@
         <v>0.32219999999999999</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="65">
         <v>43009</v>
       </c>
@@ -3901,7 +3911,7 @@
         <v>0.31724999999999998</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="60">
         <v>43040</v>
       </c>
@@ -3915,7 +3925,7 @@
         <v>0.31440000000000001</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="65">
         <v>43070</v>
       </c>
@@ -3929,7 +3939,7 @@
         <v>0.31154999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="65">
         <v>43101</v>
       </c>
@@ -3943,7 +3953,7 @@
         <v>0.31035000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="65">
         <v>43132</v>
       </c>
@@ -3957,7 +3967,7 @@
         <v>0.31515000000000004</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="69">
         <v>43160</v>
       </c>
@@ -3972,7 +3982,7 @@
         <v>0.31020000000000003</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="69">
         <v>43191</v>
       </c>
@@ -3987,7 +3997,7 @@
         <v>0.30720000000000003</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="65">
         <v>43221</v>
       </c>
@@ -4002,7 +4012,7 @@
         <v>0.30659999999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="60">
         <v>43252</v>
       </c>
@@ -4016,7 +4026,7 @@
         <v>0.30420000000000003</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="60">
         <v>43282</v>
       </c>
@@ -4031,7 +4041,7 @@
         <v>0.30044999999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="65">
         <v>43313</v>
       </c>
@@ -4045,7 +4055,7 @@
         <v>0.29909999999999998</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="65">
         <v>43344</v>
       </c>
@@ -4059,7 +4069,7 @@
         <v>0.29715000000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="57">
         <v>43374</v>
       </c>
@@ -4074,7 +4084,7 @@
         <v>0.29449999999999998</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="65">
         <v>43405</v>
       </c>
@@ -4089,7 +4099,7 @@
         <v>0.29239999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="65">
         <v>43435</v>
       </c>
@@ -4104,7 +4114,7 @@
         <v>0.29099999999999998</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="65">
         <v>43466</v>
       </c>
@@ -4119,7 +4129,7 @@
         <v>0.28739999999999999</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="65">
         <v>43497</v>
       </c>
@@ -4134,7 +4144,7 @@
         <v>0.29549999999999998</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="65">
         <v>43525</v>
       </c>
@@ -4149,7 +4159,7 @@
         <v>0.29060000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="65">
         <v>43556</v>
       </c>
@@ -4164,7 +4174,7 @@
         <v>0.2898</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="65">
         <v>43586</v>
       </c>
@@ -4179,7 +4189,7 @@
         <v>0.29010000000000002</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="57">
         <v>43617</v>
       </c>
@@ -4194,7 +4204,7 @@
         <v>0.28949999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="60">
         <v>43647</v>
       </c>
@@ -4209,7 +4219,7 @@
         <v>0.28920000000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="60">
         <v>43678</v>
       </c>
@@ -4224,7 +4234,7 @@
         <v>0.2898</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="65">
         <v>43709</v>
       </c>
@@ -4239,7 +4249,7 @@
         <v>0.2898</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="57">
         <v>43739</v>
       </c>
@@ -4254,7 +4264,7 @@
         <v>0.28649999999999998</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="69">
         <v>43770</v>
       </c>
@@ -4269,7 +4279,7 @@
         <v>0.28549999999999998</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="65">
         <v>43800</v>
       </c>
@@ -4284,7 +4294,7 @@
         <v>0.28370000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="65">
         <v>43831</v>
       </c>
@@ -4299,7 +4309,7 @@
         <v>0.28160000000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="65">
         <v>43862</v>
       </c>
@@ -4313,7 +4323,7 @@
         <v>0.28589999999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="65">
         <v>43891</v>
       </c>
@@ -4328,7 +4338,7 @@
         <v>0.2843</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="79">
         <v>43922</v>
       </c>
@@ -4343,7 +4353,7 @@
         <v>0.28039999999999998</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="45">
         <v>43952</v>
       </c>
@@ -4358,7 +4368,7 @@
         <v>0.27289999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="45">
         <v>43983</v>
       </c>
@@ -4373,7 +4383,7 @@
         <v>0.27179999999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="45">
         <v>44013</v>
       </c>
@@ -4388,7 +4398,7 @@
         <v>0.27179999999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="65">
         <v>44044</v>
       </c>
@@ -4403,7 +4413,7 @@
         <v>0.27439999999999998</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="65">
         <v>44075</v>
       </c>
@@ -4418,7 +4428,7 @@
         <v>0.27529999999999999</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="65">
         <v>44105</v>
       </c>
@@ -4433,7 +4443,7 @@
         <v>0.27139999999999997</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="65">
         <v>44136</v>
       </c>
@@ -4447,7 +4457,7 @@
         <v>0.2676</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="65">
         <v>44166</v>
       </c>
@@ -4461,7 +4471,7 @@
         <v>0.26190000000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="65">
         <v>44197</v>
       </c>
@@ -4476,7 +4486,7 @@
         <v>0.25979999999999998</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="65">
         <v>44228</v>
       </c>
@@ -4491,7 +4501,7 @@
         <v>0.2631</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="65">
         <v>44256</v>
       </c>
@@ -4506,7 +4516,7 @@
         <v>0.26114999999999999</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="65">
         <v>44287</v>
       </c>
@@ -4521,7 +4531,7 @@
         <v>0.25964999999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="65">
         <v>44317</v>
       </c>
@@ -4536,7 +4546,7 @@
         <v>0.25829999999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="65">
         <v>44348</v>
       </c>
@@ -4551,7 +4561,7 @@
         <v>0.25814999999999999</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="65">
         <v>44378</v>
       </c>
@@ -4566,7 +4576,7 @@
         <v>0.25770000000000004</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="65">
         <v>44409</v>
       </c>
@@ -4581,7 +4591,7 @@
         <v>0.2586</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="65">
         <v>44440</v>
       </c>
@@ -4596,7 +4606,7 @@
         <v>0.25785000000000002</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="65">
         <v>44470</v>
       </c>
@@ -4611,7 +4621,7 @@
         <v>0.25619999999999998</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="45">
         <v>44501</v>
       </c>
@@ -4626,7 +4636,7 @@
         <v>0.25905</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="45">
         <v>44531</v>
       </c>
@@ -4641,7 +4651,7 @@
         <v>0.26190000000000002</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="45">
         <v>44562</v>
       </c>
@@ -4656,7 +4666,7 @@
         <v>0.26490000000000002</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="45">
         <v>44593</v>
       </c>
@@ -4670,7 +4680,7 @@
         <v>0.27449999999999997</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="45">
         <v>44621</v>
       </c>
@@ -4684,7 +4694,7 @@
         <v>0.27705000000000002</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="65">
         <v>44652</v>
       </c>
@@ -4699,7 +4709,7 @@
         <v>0.28575</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="65">
         <v>44682</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>0.29564999999999997</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="45">
         <v>44713</v>
       </c>
@@ -4729,7 +4739,7 @@
         <v>0.30599999999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="45">
         <v>44743</v>
       </c>
@@ -4744,7 +4754,7 @@
         <v>0.31919999999999998</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="65">
         <v>44774</v>
       </c>
@@ -4759,7 +4769,7 @@
         <v>0.33315</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="57">
         <v>44805</v>
       </c>
@@ -4774,7 +4784,7 @@
         <v>0.35249999999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="65">
         <v>44835</v>
       </c>
@@ -4789,7 +4799,7 @@
         <v>0.36915000000000003</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="65">
         <v>44866</v>
       </c>
@@ -4803,7 +4813,7 @@
         <v>0.38669999999999993</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="65">
         <v>44896</v>
       </c>
@@ -4818,7 +4828,7 @@
         <v>0.41459999999999997</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="65">
         <v>44927</v>
       </c>
@@ -4833,7 +4843,7 @@
         <v>0.43259999999999998</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="60">
         <v>44958</v>
       </c>
@@ -4847,7 +4857,7 @@
         <v>0.45269999999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="60">
         <v>44986</v>
       </c>
@@ -4861,7 +4871,7 @@
         <v>0.46260000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A225" s="87">
         <v>45017</v>
       </c>
@@ -4876,7 +4886,7 @@
         <v>0.47084999999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A226" s="90">
         <v>45047</v>
       </c>
@@ -4891,7 +4901,7 @@
         <v>0.45405000000000006</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="60">
         <v>45078</v>
       </c>
@@ -4906,7 +4916,7 @@
         <v>0.44639999999999996</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="60">
         <v>45108</v>
       </c>
@@ -4921,7 +4931,7 @@
         <v>0.44040000000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" s="60">
         <v>45139</v>
       </c>
@@ -4936,7 +4946,7 @@
         <v>0.43124999999999997</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" s="60">
         <v>45170</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>0.42044999999999999</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="60">
         <v>45200</v>
       </c>
@@ -4966,7 +4976,7 @@
         <v>0.39794999999999997</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="65">
         <v>45231</v>
       </c>
@@ -4980,7 +4990,7 @@
         <v>0.38279999999999997</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233" s="65">
         <v>45261</v>
       </c>
@@ -4994,7 +5004,7 @@
         <v>0.37560000000000004</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234" s="65">
         <v>45292</v>
       </c>
@@ -5008,7 +5018,7 @@
         <v>0.3498</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235" s="65">
         <v>45323</v>
       </c>
@@ -5022,7 +5032,7 @@
         <v>0.34970000000000001</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236" s="65">
         <v>45352</v>
       </c>
@@ -5036,7 +5046,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" s="65">
         <v>45383</v>
       </c>
@@ -5050,7 +5060,7 @@
         <v>0.33090000000000003</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" s="65">
         <v>45413</v>
       </c>
@@ -5065,7 +5075,7 @@
         <v>0.31530000000000002</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" s="65">
         <v>45444</v>
       </c>
@@ -5080,7 +5090,7 @@
         <v>0.30840000000000001</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" s="65">
         <v>45474</v>
       </c>
@@ -5095,7 +5105,7 @@
         <v>0.2949</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" s="65">
         <v>45505</v>
       </c>
@@ -5110,7 +5120,7 @@
         <v>0.29210000000000003</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" s="65">
         <v>45536</v>
       </c>
@@ -5125,7 +5135,7 @@
         <v>0.28849999999999998</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" s="65">
         <v>45566</v>
       </c>
@@ -5140,7 +5150,7 @@
         <v>0.28170000000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" s="65">
         <v>45597</v>
       </c>
@@ -5155,7 +5165,7 @@
         <v>0.27900000000000003</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" s="65">
         <v>45627</v>
       </c>
@@ -5170,7 +5180,7 @@
         <v>0.26390000000000002</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" s="65">
         <v>45658</v>
       </c>
@@ -5184,7 +5194,7 @@
         <v>0.24890000000000001</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" s="65">
         <v>45689</v>
       </c>
@@ -5199,7 +5209,7 @@
         <v>0.26300000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" s="65">
         <v>45717</v>
       </c>
@@ -5214,7 +5224,7 @@
         <v>0.2492</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A249" s="96">
         <v>45748</v>
       </c>
@@ -5228,7 +5238,7 @@
         <v>0.25619999999999998</v>
       </c>
     </row>
-    <row r="250" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A250" s="65">
         <v>45778</v>
       </c>
@@ -5243,7 +5253,7 @@
         <v>0.25969999999999999</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A251" s="100">
         <v>45809</v>
       </c>
@@ -5258,7 +5268,7 @@
         <v>0.2555</v>
       </c>
     </row>
-    <row r="252" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A252" s="100">
         <v>45839</v>
       </c>
@@ -5273,7 +5283,7 @@
         <v>0.24779999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A253" s="100">
         <v>45870</v>
       </c>
@@ -5287,7 +5297,7 @@
         <v>0.25169999999999998</v>
       </c>
     </row>
-    <row r="254" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A254" s="100">
         <v>45901</v>
       </c>
@@ -5302,7 +5312,7 @@
         <v>0.25009999999999999</v>
       </c>
     </row>
-    <row r="255" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A255" s="100">
         <v>45931</v>
       </c>
@@ -5316,7 +5326,7 @@
         <v>0.24360000000000001</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A256" s="100">
         <v>45962</v>
       </c>
@@ -5330,7 +5340,7 @@
         <v>0.24990000000000001</v>
       </c>
     </row>
-    <row r="257" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A257" s="100">
         <v>45992</v>
       </c>
@@ -5344,7 +5354,21 @@
         <v>0.25019999999999998</v>
       </c>
     </row>
-    <row r="258" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:4" ht="17" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="105">
+        <v>46023</v>
+      </c>
+      <c r="B258" s="101">
+        <v>46053</v>
+      </c>
+      <c r="C258" s="103">
+        <v>0.16239999999999999</v>
+      </c>
+      <c r="D258" s="104">
+        <v>0.24360000000000001</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" ht="16" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
